--- a/Excel reader/B6.xlsx
+++ b/Excel reader/B6.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>181B186</t>
+          <t>181b186</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>181B179</t>
+          <t>181b179</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -482,7 +482,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>181B163</t>
+          <t>181b163</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -536,7 +536,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>181B192</t>
+          <t>181b192</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -554,7 +554,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181B174</t>
+          <t>181b174</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>181B172</t>
+          <t>181b172</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -608,7 +608,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>181B171</t>
+          <t>181b171</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -662,7 +662,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>181B185</t>
+          <t>181b185</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -680,7 +680,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">181B180 </t>
+          <t xml:space="preserve">181b180 </t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -698,7 +698,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>181B183</t>
+          <t>181b183</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -734,7 +734,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>181B168</t>
+          <t>181b168</t>
         </is>
       </c>
       <c r="B18" t="n">
